--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_22_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_22_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33856.29106451112</v>
+        <v>6736775.838094227</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33856.29106451112</v>
+        <v>6736775.838094227</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18998.05640237297</v>
+        <v>1146088.991921576</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18998.05640237297</v>
+        <v>1146088.991921576</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266799684.441072</v>
+        <v>52100615.88787916</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12010.66378162173</v>
+        <v>1317579.50854623</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22339.71662560073</v>
+        <v>2356565.56682062</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32668.76946957971</v>
+        <v>3395551.625095012</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43538.13381312032</v>
+        <v>4399970.99970135</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54407.49815666091</v>
+        <v>5404390.374307688</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>65276.71761165749</v>
+        <v>6408798.215785921</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>76145.99502207169</v>
+        <v>7413217.590392254</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>87015.27243248586</v>
+        <v>8417636.964998588</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97681.25002532899</v>
+        <v>9419494.335116085</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>108386.3696627525</v>
+        <v>10429140.97210581</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>119090.7487710187</v>
+        <v>11438709.11300457</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>129796.2144848836</v>
+        <v>12448355.74999413</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140501.3341223064</v>
+        <v>13458002.3869839</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>151206.4537597309</v>
+        <v>14467649.02397333</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161911.227320715</v>
+        <v>15477295.66096272</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>288.0000000000559</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
